--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7754D4-A5A8-EA45-89FE-1DF62A7EBF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1095960A-496F-034F-99E8-4557CC75C3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68640" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="2" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
+    <workbookView xWindow="68640" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="4" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>Bloomberg</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>python imports last 5 day rolling average</t>
+  </si>
+  <si>
+    <t>Python imports the data from the tabs Bloomberg, Statista, Treasury, Investing.com and spits out the following data and chart</t>
+  </si>
+  <si>
+    <t>THIS IS IMPORTED INTO PYTHON (imported via API, data just shown here for visibility)</t>
   </si>
 </sst>
 </file>
@@ -748,10 +754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -759,6 +765,11 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C491D87-F346-CA48-BF83-3B74F4392A2D}">
   <dimension ref="A1:F533"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -15482,7 +15493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FA34E8-AF23-5B46-BA07-871AB5EF464C}">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -26711,7 +26722,7 @@
   <dimension ref="A1:E532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26768,7 +26779,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9780AFF6-DD0E-2742-8B80-98E75C4CD0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D00F93-450F-904D-883C-16B3714B9FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68640" yWindow="520" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
+    <workbookView xWindow="72080" yWindow="5160" windowWidth="38400" windowHeight="23500" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -207,9 +207,6 @@
     <t>4. keep remaining dates that match and the corresponding discounted rolling last 5 day averages for each of the series, as shown below</t>
   </si>
   <si>
-    <t>LOOK AT FINAL PYTHON DATA TAB</t>
-  </si>
-  <si>
     <t>Summary of calculations (also written out in final python data tab):</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>Final Python Data (after transformations) FROM RUNNING PYTHON CODE</t>
+  </si>
+  <si>
+    <t>LOOK AT README.MD and LOOK AT FINAL PYTHON DATA TAB</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AAC05F-B371-884F-ABD1-98C22EF61BAF}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,18 +833,18 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -878,6 +878,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4D60945F-CEEC-844E-96A3-BB459EAB320C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -886,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
   <dimension ref="A1:E496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -897,7 +900,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -912,7 +915,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -932,12 +935,12 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9232,7 +9235,7 @@
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -23944,7 +23947,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D00F93-450F-904D-883C-16B3714B9FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024D2237-1AA6-3344-A963-B8F042F62910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="72080" yWindow="5160" windowWidth="38400" windowHeight="23500" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
@@ -225,7 +225,7 @@
     <t>Final Python Data (after transformations) FROM RUNNING PYTHON CODE</t>
   </si>
   <si>
-    <t>LOOK AT README.MD and LOOK AT FINAL PYTHON DATA TAB</t>
+    <t>LOOK AT README.MD for more descriptions if needed and LOOK AT FINAL PYTHON DATA TAB</t>
   </si>
 </sst>
 </file>

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A07926-D927-2A48-B86B-2ED7026439CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C251ED6-9F3C-E241-9B4A-1727DBB980BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>Bloomberg</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>No Treasury or Datastream in Average</t>
+  </si>
+  <si>
+    <t>Discount is calculated by taking average of four urals pricing then subtracting brent</t>
   </si>
 </sst>
 </file>
@@ -943,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
   <dimension ref="A1:I496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="108" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25432,8 +25435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FA34E8-AF23-5B46-BA07-871AB5EF464C}">
   <dimension ref="A1:H513"/>
   <sheetViews>
-    <sheetView topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -36665,7 +36668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC84B53-9CC3-0348-A151-A8A415ACC55E}">
   <dimension ref="A1:E532"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -44589,10 +44592,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC841A3D-0425-7F4C-9464-9A4518464EF5}">
-  <dimension ref="A1:I535"/>
+  <dimension ref="A1:K535"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44607,34 +44610,34 @@
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="G5" s="1"/>
       <c r="I5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>30</v>
       </c>
@@ -44645,7 +44648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
@@ -44673,8 +44676,11 @@
       <c r="I7" s="21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44564</v>
       </c>
@@ -44705,7 +44711,7 @@
         <v>-3.222</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44565</v>
       </c>
@@ -44736,7 +44742,7 @@
         <v>-3.278</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44566</v>
       </c>
@@ -44767,7 +44773,7 @@
         <v>-3.0089999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44567</v>
       </c>
@@ -44798,7 +44804,7 @@
         <v>-2.827</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44568</v>
       </c>
@@ -44829,7 +44835,7 @@
         <v>-2.6459999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44571</v>
       </c>
@@ -44860,7 +44866,7 @@
         <v>-2.2610000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44572</v>
       </c>
@@ -44891,7 +44897,7 @@
         <v>-1.8520000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44573</v>
       </c>
@@ -44922,7 +44928,7 @@
         <v>-1.613</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44574</v>
       </c>

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C251ED6-9F3C-E241-9B4A-1727DBB980BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D3619D-1DB1-584A-850F-D0C0B4D91C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Bloomberg</t>
   </si>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
   <dimension ref="A1:I496"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44594,8 +44594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC841A3D-0425-7F4C-9464-9A4518464EF5}">
   <dimension ref="A1:K535"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44641,6 +44641,18 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" t="s">
         <v>30</v>
       </c>

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099F644D-E564-1A4F-BACA-01A4876301F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D7DF1-6A7F-9740-A950-0A3010159170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68660" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
@@ -482,16 +482,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>463854</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>687374</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>66682</xdr:rowOff>
+      <xdr:rowOff>87002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>463855</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>687375</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>66683</xdr:rowOff>
+      <xdr:rowOff>87003</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -514,7 +514,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7271054" y="14087482"/>
+          <a:off x="6671614" y="14107802"/>
           <a:ext cx="8229601" cy="4064001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -526,16 +526,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>477520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>65468</xdr:rowOff>
+      <xdr:rowOff>55308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>656790</xdr:colOff>
+      <xdr:colOff>37030</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -558,7 +558,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7081520" y="3723068"/>
+          <a:off x="6461760" y="3712908"/>
           <a:ext cx="8612070" cy="4252532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -570,14 +570,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>751840</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>650240</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>20320</xdr:rowOff>
     </xdr:to>
@@ -602,7 +602,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16926560" y="3779520"/>
+          <a:off x="16002000" y="3779520"/>
           <a:ext cx="8737600" cy="4368800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -614,16 +614,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>629920</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -646,7 +646,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16896080" y="8950960"/>
+          <a:off x="16002000" y="9052560"/>
           <a:ext cx="8717280" cy="4358640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -991,9 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
   <dimension ref="A1:W496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1179,7 @@
         <v>-2.6459999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>44571</v>
       </c>
@@ -1201,11 +1201,11 @@
       <c r="J17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>44572</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>-1.8520000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>44573</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>-1.613</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44574</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>-1.3069999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>44575</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>-1.2310000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>44578</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>-1.0049999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>44579</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>-0.78800000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>44580</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>44581</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>-0.185</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>44582</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0.249</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>44585</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>44586</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>44587</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>0.38800000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>44588</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>0.40799999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>44589</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>0.53500000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>44592</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44593</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44594</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44595</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>-0.44600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44596</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>-0.42699999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44599</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44600</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44601</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44602</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44603</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>1.202</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44606</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44607</v>
       </c>
@@ -1724,11 +1724,11 @@
       <c r="F43">
         <v>0.58899999999999997</v>
       </c>
-      <c r="V43" s="1" t="s">
+      <c r="U43" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44608</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44609</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>-0.53700000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44610</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>-0.51400000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44613</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>-1.028</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44614</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>-23.882000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44637</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>-24.405999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44638</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>-24.324000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44641</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>-24.257999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44642</v>
       </c>
@@ -2230,11 +2230,11 @@
       <c r="J68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V68" s="1" t="s">
+      <c r="U68" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44643</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>-24.808</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44644</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>-24.678000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44645</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>-25.239000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44648</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>-25.706</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44649</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>-26.457000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44650</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>-27.19</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44651</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>-28.559000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44652</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>-28.872</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44655</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>-30.120999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44656</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>-31.324000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44657</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>-32.290999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44658</v>
       </c>
@@ -10805,7 +10805,7 @@
   <dimension ref="A1:I534"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -21428,7 +21428,7 @@
   <dimension ref="A1:J536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -29415,11 +29415,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDADF3E-EBB8-3542-B41A-E788852C87F6}">
-  <dimension ref="A1:G511"/>
+  <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29487,1623 +29487,1623 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="B9" s="17">
-        <v>-2.0099999999999998</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
-        <v>44564</v>
+        <v>44565</v>
       </c>
       <c r="B10" s="17">
-        <v>-1.99</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
-        <v>44565</v>
+        <v>44566</v>
       </c>
       <c r="B11" s="17">
-        <v>-2</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
-        <v>44566</v>
+        <v>44567</v>
       </c>
       <c r="B12" s="17">
-        <v>-1.72</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
-        <v>44567</v>
+        <v>44568</v>
       </c>
       <c r="B13" s="17">
-        <v>-1.59</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B14" s="17">
-        <v>-1.76</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
-        <v>44571</v>
+        <v>44572</v>
       </c>
       <c r="B15" s="17">
-        <v>-1.63</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
-        <v>44572</v>
+        <v>44573</v>
       </c>
       <c r="B16" s="17">
-        <v>-1.64</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
-        <v>44573</v>
+        <v>44574</v>
       </c>
       <c r="B17" s="17">
-        <v>-1.69</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
-        <v>44574</v>
+        <v>44575</v>
       </c>
       <c r="B18" s="17">
-        <v>-1.73</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
-        <v>44575</v>
+        <v>44578</v>
       </c>
       <c r="B19" s="17">
-        <v>-1.88</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
-        <v>44578</v>
+        <v>44579</v>
       </c>
       <c r="B20" s="17">
-        <v>-1.81</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
-        <v>44579</v>
+        <v>44580</v>
       </c>
       <c r="B21" s="17">
-        <v>-1.61</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
-        <v>44580</v>
+        <v>44581</v>
       </c>
       <c r="B22" s="17">
-        <v>-1.35</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
-        <v>44581</v>
+        <v>44582</v>
       </c>
       <c r="B23" s="17">
-        <v>-1</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B24" s="17">
-        <v>-0.72</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="B25" s="17">
-        <v>-0.71</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="B26" s="17">
-        <v>-0.7</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="B27" s="17">
-        <v>-0.71</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="B28" s="17">
-        <v>-0.76</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="B29" s="17">
-        <v>-0.53</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="B30" s="17">
-        <v>-0.59</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="B31" s="17">
-        <v>-0.66</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="B32" s="17">
-        <v>-1.32</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
-        <v>44595</v>
+        <v>44596</v>
       </c>
       <c r="B33" s="17">
-        <v>-2.14</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
-        <v>44596</v>
+        <v>44599</v>
       </c>
       <c r="B34" s="17">
-        <v>-2.64</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="16">
-        <v>44599</v>
+        <v>44600</v>
       </c>
       <c r="B35" s="17">
-        <v>-2.77</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="16">
-        <v>44600</v>
+        <v>44601</v>
       </c>
       <c r="B36" s="17">
-        <v>-3.11</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
-        <v>44601</v>
+        <v>44602</v>
       </c>
       <c r="B37" s="17">
-        <v>-2.97</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
-        <v>44602</v>
+        <v>44603</v>
       </c>
       <c r="B38" s="17">
-        <v>-2.57</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
-        <v>44603</v>
+        <v>44606</v>
       </c>
       <c r="B39" s="17">
-        <v>-3.14</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
-        <v>44606</v>
+        <v>44607</v>
       </c>
       <c r="B40" s="17">
-        <v>-3.81</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
-        <v>44607</v>
+        <v>44608</v>
       </c>
       <c r="B41" s="17">
-        <v>-3.91</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="B42" s="17">
-        <v>-3.82</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
-        <v>44609</v>
+        <v>44610</v>
       </c>
       <c r="B43" s="17">
-        <v>-4.21</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="B44" s="17">
-        <v>-4.03</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="16">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B45" s="17">
-        <v>-3.82</v>
+        <v>-4.32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="16">
-        <v>44614</v>
+        <v>44615</v>
       </c>
       <c r="B46" s="17">
-        <v>-4.32</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
-        <v>44615</v>
+        <v>44616</v>
       </c>
       <c r="B47" s="17">
-        <v>-5.17</v>
+        <v>-6.51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
-        <v>44616</v>
+        <v>44617</v>
       </c>
       <c r="B48" s="17">
-        <v>-6.51</v>
+        <v>-7.95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="16">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="B49" s="17">
-        <v>-7.95</v>
+        <v>-9.7899999999999991</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="16">
-        <v>44620</v>
+        <v>44621</v>
       </c>
       <c r="B50" s="17">
-        <v>-9.7899999999999991</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="B51" s="17">
-        <v>-12</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="16">
-        <v>44622</v>
+        <v>44623</v>
       </c>
       <c r="B52" s="17">
-        <v>-15</v>
+        <v>-16.72</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="16">
-        <v>44623</v>
+        <v>44624</v>
       </c>
       <c r="B53" s="17">
-        <v>-16.72</v>
+        <v>-20.05</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="16">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="B54" s="17">
-        <v>-20.05</v>
+        <v>-22.71</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="16">
-        <v>44627</v>
+        <v>44628</v>
       </c>
       <c r="B55" s="17">
-        <v>-22.71</v>
+        <v>-24.28</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="16">
-        <v>44628</v>
+        <v>44629</v>
       </c>
       <c r="B56" s="17">
-        <v>-24.28</v>
+        <v>-23.47</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="16">
-        <v>44629</v>
+        <v>44630</v>
       </c>
       <c r="B57" s="17">
-        <v>-23.47</v>
+        <v>-24.31</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="16">
-        <v>44630</v>
+        <v>44631</v>
       </c>
       <c r="B58" s="17">
-        <v>-24.31</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="16">
-        <v>44631</v>
+        <v>44634</v>
       </c>
       <c r="B59" s="17">
-        <v>-24.57</v>
+        <v>-25.22</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="16">
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="B60" s="17">
-        <v>-25.22</v>
+        <v>-25.74</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="16">
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="B61" s="17">
-        <v>-25.74</v>
+        <v>-27.91</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="16">
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="B62" s="17">
-        <v>-27.91</v>
+        <v>-29.23</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="16">
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="B63" s="17">
-        <v>-29.23</v>
+        <v>-29.47</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="16">
-        <v>44638</v>
+        <v>44641</v>
       </c>
       <c r="B64" s="17">
-        <v>-29.47</v>
+        <v>-29.8</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="16">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B65" s="17">
-        <v>-29.8</v>
+        <v>-30.63</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="16">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B66" s="17">
-        <v>-30.63</v>
+        <v>-31.25</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="16">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B67" s="17">
-        <v>-31.25</v>
+        <v>-31.16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="16">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B68" s="17">
-        <v>-31.16</v>
+        <v>-31.19</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="16">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B69" s="17">
-        <v>-31.19</v>
+        <v>-30.89</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="16">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B70" s="17">
-        <v>-30.89</v>
+        <v>-30.86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B71" s="17">
-        <v>-30.86</v>
+        <v>-30.74</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="16">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B72" s="17">
-        <v>-30.74</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="16">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B73" s="17">
-        <v>-30.8</v>
+        <v>-30.69</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="16">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="B74" s="17">
-        <v>-30.69</v>
+        <v>-31.52</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="16">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B75" s="17">
-        <v>-31.52</v>
+        <v>-32.06</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="16">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="B76" s="17">
-        <v>-32.06</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="16">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="B77" s="17">
-        <v>-32.18</v>
+        <v>-33.31</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="16">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="B78" s="17">
-        <v>-33.31</v>
+        <v>-34.53</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="16">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B79" s="17">
-        <v>-34.53</v>
+        <v>-34.520000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="16">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="B80" s="17">
-        <v>-34.520000000000003</v>
+        <v>-34.47</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="16">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="B81" s="17">
-        <v>-34.47</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="16">
-        <v>44664</v>
+        <v>44665</v>
       </c>
       <c r="B82" s="17">
-        <v>-35.5</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="16">
-        <v>44665</v>
+        <v>44666</v>
       </c>
       <c r="B83" s="17">
-        <v>-36.03</v>
+        <v>-36.49</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="16">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="B84" s="17">
-        <v>-36.49</v>
+        <v>-37.35</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="16">
-        <v>44669</v>
+        <v>44670</v>
       </c>
       <c r="B85" s="17">
-        <v>-37.35</v>
+        <v>-37.47</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="16">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="B86" s="17">
-        <v>-37.47</v>
+        <v>-37.04</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="16">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="B87" s="17">
-        <v>-37.04</v>
+        <v>-36.340000000000003</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="16">
-        <v>44672</v>
+        <v>44673</v>
       </c>
       <c r="B88" s="17">
-        <v>-36.340000000000003</v>
+        <v>-35.549999999999997</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="16">
-        <v>44673</v>
+        <v>44676</v>
       </c>
       <c r="B89" s="17">
-        <v>-35.549999999999997</v>
+        <v>-35.29</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="16">
-        <v>44676</v>
+        <v>44677</v>
       </c>
       <c r="B90" s="17">
-        <v>-35.29</v>
+        <v>-35.49</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="16">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="B91" s="17">
-        <v>-35.49</v>
+        <v>-35.72</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="16">
-        <v>44678</v>
+        <v>44679</v>
       </c>
       <c r="B92" s="17">
-        <v>-35.72</v>
+        <v>-35.9</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="16">
-        <v>44679</v>
+        <v>44680</v>
       </c>
       <c r="B93" s="17">
-        <v>-35.9</v>
+        <v>-35.94</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="16">
-        <v>44680</v>
+        <v>44683</v>
       </c>
       <c r="B94" s="17">
-        <v>-35.94</v>
+        <v>-35.46</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="16">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="B95" s="17">
-        <v>-35.46</v>
+        <v>-35.07</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="16">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="B96" s="17">
-        <v>-35.07</v>
+        <v>-35.21</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="16">
-        <v>44685</v>
+        <v>44686</v>
       </c>
       <c r="B97" s="17">
-        <v>-35.21</v>
+        <v>-34.909999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="16">
-        <v>44686</v>
+        <v>44687</v>
       </c>
       <c r="B98" s="17">
-        <v>-34.909999999999997</v>
+        <v>-34.75</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="16">
-        <v>44687</v>
+        <v>44690</v>
       </c>
       <c r="B99" s="17">
-        <v>-34.75</v>
+        <v>-34.67</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="16">
-        <v>44690</v>
+        <v>44691</v>
       </c>
       <c r="B100" s="17">
-        <v>-34.67</v>
+        <v>-34.56</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="16">
-        <v>44691</v>
+        <v>44692</v>
       </c>
       <c r="B101" s="17">
-        <v>-34.56</v>
+        <v>-34.24</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="16">
-        <v>44692</v>
+        <v>44693</v>
       </c>
       <c r="B102" s="17">
-        <v>-34.24</v>
+        <v>-34.200000000000003</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="16">
-        <v>44693</v>
+        <v>44694</v>
       </c>
       <c r="B103" s="17">
-        <v>-34.200000000000003</v>
+        <v>-34.53</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="16">
-        <v>44694</v>
+        <v>44697</v>
       </c>
       <c r="B104" s="17">
-        <v>-34.53</v>
+        <v>-34.950000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="16">
-        <v>44697</v>
+        <v>44698</v>
       </c>
       <c r="B105" s="17">
-        <v>-34.950000000000003</v>
+        <v>-34.71</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="16">
-        <v>44698</v>
+        <v>44699</v>
       </c>
       <c r="B106" s="17">
-        <v>-34.71</v>
+        <v>-34.6</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="16">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="B107" s="17">
-        <v>-34.6</v>
+        <v>-35.119999999999997</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="16">
-        <v>44700</v>
+        <v>44701</v>
       </c>
       <c r="B108" s="17">
-        <v>-35.119999999999997</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="16">
-        <v>44701</v>
+        <v>44704</v>
       </c>
       <c r="B109" s="17">
-        <v>-35</v>
+        <v>-34.65</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="16">
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="B110" s="17">
-        <v>-34.65</v>
+        <v>-35.21</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="16">
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="B111" s="17">
-        <v>-35.21</v>
+        <v>-35.380000000000003</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="16">
-        <v>44706</v>
+        <v>44707</v>
       </c>
       <c r="B112" s="17">
-        <v>-35.380000000000003</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="16">
-        <v>44707</v>
+        <v>44708</v>
       </c>
       <c r="B113" s="17">
-        <v>-35</v>
+        <v>-35.25</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="16">
-        <v>44708</v>
+        <v>44711</v>
       </c>
       <c r="B114" s="17">
-        <v>-35.25</v>
+        <v>-35.49</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="16">
-        <v>44711</v>
+        <v>44712</v>
       </c>
       <c r="B115" s="17">
-        <v>-35.49</v>
+        <v>-35.200000000000003</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="16">
-        <v>44712</v>
+        <v>44713</v>
       </c>
       <c r="B116" s="17">
-        <v>-35.200000000000003</v>
+        <v>-34.880000000000003</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="16">
-        <v>44713</v>
+        <v>44714</v>
       </c>
       <c r="B117" s="17">
-        <v>-34.880000000000003</v>
+        <v>-34.229999999999997</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="16">
-        <v>44714</v>
+        <v>44715</v>
       </c>
       <c r="B118" s="17">
-        <v>-34.229999999999997</v>
+        <v>-33.93</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="16">
-        <v>44715</v>
+        <v>44718</v>
       </c>
       <c r="B119" s="17">
-        <v>-33.93</v>
+        <v>-33.700000000000003</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="16">
-        <v>44718</v>
+        <v>44719</v>
       </c>
       <c r="B120" s="17">
-        <v>-33.700000000000003</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="16">
-        <v>44719</v>
+        <v>44720</v>
       </c>
       <c r="B121" s="17">
-        <v>-34.08</v>
+        <v>-34.54</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="16">
-        <v>44720</v>
+        <v>44721</v>
       </c>
       <c r="B122" s="17">
-        <v>-34.54</v>
+        <v>-35.020000000000003</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="16">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="B123" s="17">
-        <v>-35.020000000000003</v>
+        <v>-35.159999999999997</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="16">
-        <v>44722</v>
+        <v>44725</v>
       </c>
       <c r="B124" s="17">
-        <v>-35.159999999999997</v>
+        <v>-35.43</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="16">
-        <v>44725</v>
+        <v>44726</v>
       </c>
       <c r="B125" s="17">
-        <v>-35.43</v>
+        <v>-34.61</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="16">
-        <v>44726</v>
+        <v>44727</v>
       </c>
       <c r="B126" s="17">
-        <v>-34.61</v>
+        <v>-33.67</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="16">
-        <v>44727</v>
+        <v>44728</v>
       </c>
       <c r="B127" s="17">
-        <v>-33.67</v>
+        <v>-34.51</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="16">
-        <v>44728</v>
+        <v>44729</v>
       </c>
       <c r="B128" s="17">
-        <v>-34.51</v>
+        <v>-34.15</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="16">
-        <v>44729</v>
+        <v>44732</v>
       </c>
       <c r="B129" s="17">
-        <v>-34.15</v>
+        <v>-33.93</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="16">
-        <v>44732</v>
+        <v>44733</v>
       </c>
       <c r="B130" s="17">
-        <v>-33.93</v>
+        <v>-34.65</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="16">
-        <v>44733</v>
+        <v>44734</v>
       </c>
       <c r="B131" s="17">
-        <v>-34.65</v>
+        <v>-35.25</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="16">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="B132" s="17">
-        <v>-35.25</v>
+        <v>-34.619999999999997</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="16">
-        <v>44735</v>
+        <v>44736</v>
       </c>
       <c r="B133" s="17">
-        <v>-34.619999999999997</v>
+        <v>-34.67</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="16">
-        <v>44736</v>
+        <v>44739</v>
       </c>
       <c r="B134" s="17">
-        <v>-34.67</v>
+        <v>-34.619999999999997</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="16">
-        <v>44739</v>
+        <v>44740</v>
       </c>
       <c r="B135" s="17">
-        <v>-34.619999999999997</v>
+        <v>-34.35</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="16">
-        <v>44740</v>
+        <v>44741</v>
       </c>
       <c r="B136" s="17">
-        <v>-34.35</v>
+        <v>-33.31</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="16">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="B137" s="17">
-        <v>-33.31</v>
+        <v>-33.04</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="16">
-        <v>44742</v>
+        <v>44743</v>
       </c>
       <c r="B138" s="17">
-        <v>-33.04</v>
+        <v>-32.869999999999997</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="16">
-        <v>44743</v>
+        <v>44746</v>
       </c>
       <c r="B139" s="17">
-        <v>-32.869999999999997</v>
+        <v>-32.380000000000003</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="16">
-        <v>44746</v>
+        <v>44747</v>
       </c>
       <c r="B140" s="17">
-        <v>-32.380000000000003</v>
+        <v>-32.21</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="16">
-        <v>44747</v>
+        <v>44748</v>
       </c>
       <c r="B141" s="17">
-        <v>-32.21</v>
+        <v>-32.590000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="16">
-        <v>44748</v>
+        <v>44749</v>
       </c>
       <c r="B142" s="17">
-        <v>-32.590000000000003</v>
+        <v>-32.450000000000003</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="16">
-        <v>44749</v>
+        <v>44750</v>
       </c>
       <c r="B143" s="17">
-        <v>-32.450000000000003</v>
+        <v>-32.33</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="16">
-        <v>44750</v>
+        <v>44753</v>
       </c>
       <c r="B144" s="17">
-        <v>-32.33</v>
+        <v>-32.49</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="16">
-        <v>44753</v>
+        <v>44754</v>
       </c>
       <c r="B145" s="17">
-        <v>-32.49</v>
+        <v>-32.24</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="16">
-        <v>44754</v>
+        <v>44755</v>
       </c>
       <c r="B146" s="17">
-        <v>-32.24</v>
+        <v>-32.29</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="16">
-        <v>44755</v>
+        <v>44756</v>
       </c>
       <c r="B147" s="17">
-        <v>-32.29</v>
+        <v>-33.130000000000003</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="16">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="B148" s="17">
-        <v>-33.130000000000003</v>
+        <v>-32.99</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="16">
-        <v>44757</v>
+        <v>44760</v>
       </c>
       <c r="B149" s="17">
-        <v>-32.99</v>
+        <v>-32.9</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="16">
-        <v>44760</v>
+        <v>44761</v>
       </c>
       <c r="B150" s="17">
-        <v>-32.9</v>
+        <v>-33.479999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="16">
-        <v>44761</v>
+        <v>44762</v>
       </c>
       <c r="B151" s="17">
-        <v>-33.479999999999997</v>
+        <v>-33.54</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="16">
-        <v>44762</v>
+        <v>44763</v>
       </c>
       <c r="B152" s="17">
-        <v>-33.54</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="16">
-        <v>44763</v>
+        <v>44764</v>
       </c>
       <c r="B153" s="17">
-        <v>-32.79</v>
+        <v>-32.51</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="16">
-        <v>44764</v>
+        <v>44767</v>
       </c>
       <c r="B154" s="17">
-        <v>-32.51</v>
+        <v>-32.549999999999997</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="16">
-        <v>44767</v>
+        <v>44768</v>
       </c>
       <c r="B155" s="17">
-        <v>-32.549999999999997</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="16">
-        <v>44768</v>
+        <v>44769</v>
       </c>
       <c r="B156" s="17">
-        <v>-32</v>
+        <v>-31.89</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="16">
-        <v>44769</v>
+        <v>44770</v>
       </c>
       <c r="B157" s="17">
-        <v>-31.89</v>
+        <v>-31.84</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="16">
-        <v>44770</v>
+        <v>44771</v>
       </c>
       <c r="B158" s="17">
-        <v>-31.84</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="16">
-        <v>44771</v>
+        <v>44774</v>
       </c>
       <c r="B159" s="17">
-        <v>-32.18</v>
+        <v>-32.200000000000003</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="16">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="B160" s="17">
-        <v>-32.200000000000003</v>
+        <v>-32.450000000000003</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="16">
-        <v>44775</v>
+        <v>44776</v>
       </c>
       <c r="B161" s="17">
-        <v>-32.450000000000003</v>
+        <v>-32.11</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="16">
-        <v>44776</v>
+        <v>44777</v>
       </c>
       <c r="B162" s="17">
-        <v>-32.11</v>
+        <v>-32.26</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="16">
-        <v>44777</v>
+        <v>44778</v>
       </c>
       <c r="B163" s="17">
-        <v>-32.26</v>
+        <v>-32.15</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="16">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="B164" s="17">
-        <v>-32.15</v>
+        <v>-32.04</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="16">
-        <v>44781</v>
+        <v>44782</v>
       </c>
       <c r="B165" s="17">
-        <v>-32.04</v>
+        <v>-31.82</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="16">
-        <v>44782</v>
+        <v>44783</v>
       </c>
       <c r="B166" s="17">
-        <v>-31.82</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="16">
-        <v>44783</v>
+        <v>44784</v>
       </c>
       <c r="B167" s="17">
-        <v>-32.57</v>
+        <v>-32.68</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="16">
-        <v>44784</v>
+        <v>44785</v>
       </c>
       <c r="B168" s="17">
-        <v>-32.68</v>
+        <v>-32.89</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="16">
-        <v>44785</v>
+        <v>44788</v>
       </c>
       <c r="B169" s="17">
-        <v>-32.89</v>
+        <v>-33.1</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="16">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="B170" s="17">
-        <v>-33.1</v>
+        <v>-33.159999999999997</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="16">
-        <v>44789</v>
+        <v>44790</v>
       </c>
       <c r="B171" s="17">
-        <v>-33.159999999999997</v>
+        <v>-31.15</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="16">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="B172" s="17">
-        <v>-31.15</v>
+        <v>-29.27</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="16">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="B173" s="17">
-        <v>-29.27</v>
+        <v>-27.4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="16">
-        <v>44792</v>
+        <v>44795</v>
       </c>
       <c r="B174" s="17">
-        <v>-27.4</v>
+        <v>-25.71</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="16">
-        <v>44795</v>
+        <v>44796</v>
       </c>
       <c r="B175" s="17">
-        <v>-25.71</v>
+        <v>-24.21</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="16">
-        <v>44796</v>
+        <v>44797</v>
       </c>
       <c r="B176" s="17">
-        <v>-24.21</v>
+        <v>-24.36</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="16">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="B177" s="17">
-        <v>-24.36</v>
+        <v>-23.96</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="16">
-        <v>44798</v>
+        <v>44799</v>
       </c>
       <c r="B178" s="17">
-        <v>-23.96</v>
+        <v>-24.36</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="16">
-        <v>44799</v>
+        <v>44802</v>
       </c>
       <c r="B179" s="17">
-        <v>-24.36</v>
+        <v>-24.39</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="16">
-        <v>44802</v>
+        <v>44803</v>
       </c>
       <c r="B180" s="17">
-        <v>-24.39</v>
+        <v>-24.11</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="16">
-        <v>44803</v>
+        <v>44804</v>
       </c>
       <c r="B181" s="17">
-        <v>-24.11</v>
+        <v>-23.78</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="16">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="B182" s="17">
-        <v>-23.78</v>
+        <v>-24.05</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="16">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="B183" s="17">
-        <v>-24.05</v>
+        <v>-23.43</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="16">
-        <v>44806</v>
+        <v>44809</v>
       </c>
       <c r="B184" s="17">
-        <v>-23.43</v>
+        <v>-23.01</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="16">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="B185" s="17">
-        <v>-23.01</v>
+        <v>-23.09</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="16">
-        <v>44810</v>
+        <v>44811</v>
       </c>
       <c r="B186" s="17">
-        <v>-23.09</v>
+        <v>-22.82</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="16">
-        <v>44811</v>
+        <v>44812</v>
       </c>
       <c r="B187" s="17">
-        <v>-22.82</v>
+        <v>-22.91</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="16">
-        <v>44812</v>
+        <v>44813</v>
       </c>
       <c r="B188" s="17">
-        <v>-22.91</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="16">
-        <v>44813</v>
+        <v>44816</v>
       </c>
       <c r="B189" s="17">
-        <v>-23.39</v>
+        <v>-23.36</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="16">
-        <v>44816</v>
+        <v>44817</v>
       </c>
       <c r="B190" s="17">
-        <v>-23.36</v>
+        <v>-23.5</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="16">
-        <v>44817</v>
+        <v>44818</v>
       </c>
       <c r="B191" s="17">
-        <v>-23.5</v>
+        <v>-23.71</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="16">
-        <v>44818</v>
+        <v>44819</v>
       </c>
       <c r="B192" s="17">
-        <v>-23.71</v>
+        <v>-23.72</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="16">
-        <v>44819</v>
+        <v>44820</v>
       </c>
       <c r="B193" s="17">
-        <v>-23.72</v>
+        <v>-23.3</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="16">
-        <v>44820</v>
+        <v>44823</v>
       </c>
       <c r="B194" s="17">
-        <v>-23.3</v>
+        <v>-23.21</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="16">
-        <v>44823</v>
+        <v>44824</v>
       </c>
       <c r="B195" s="17">
-        <v>-23.21</v>
+        <v>-23.19</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="16">
-        <v>44824</v>
+        <v>44825</v>
       </c>
       <c r="B196" s="17">
-        <v>-23.19</v>
+        <v>-23.32</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="16">
-        <v>44825</v>
+        <v>44826</v>
       </c>
       <c r="B197" s="17">
-        <v>-23.32</v>
+        <v>-23.22</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="16">
-        <v>44826</v>
+        <v>44827</v>
       </c>
       <c r="B198" s="17">
-        <v>-23.22</v>
+        <v>-23.28</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="16">
-        <v>44827</v>
+        <v>44830</v>
       </c>
       <c r="B199" s="17">
-        <v>-23.28</v>
+        <v>-23.13</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="16">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="B200" s="17">
-        <v>-23.13</v>
+        <v>-23.06</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="16">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="B201" s="17">
-        <v>-23.06</v>
+        <v>-23.22</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="16">
-        <v>44832</v>
+        <v>44833</v>
       </c>
       <c r="B202" s="17">
-        <v>-23.22</v>
+        <v>-23.26</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="16">
-        <v>44833</v>
+        <v>44834</v>
       </c>
       <c r="B203" s="17">
-        <v>-23.26</v>
+        <v>-23.38</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="16">
-        <v>44834</v>
+        <v>44837</v>
       </c>
       <c r="B204" s="17">
-        <v>-23.38</v>
+        <v>-23.82</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="16">
-        <v>44837</v>
+        <v>44838</v>
       </c>
       <c r="B205" s="17">
-        <v>-23.82</v>
+        <v>-23.78</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="16">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="B206" s="17">
-        <v>-23.78</v>
+        <v>-23.56</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="16">
-        <v>44839</v>
+        <v>44840</v>
       </c>
       <c r="B207" s="17">
-        <v>-23.56</v>
+        <v>-23.63</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="16">
-        <v>44840</v>
+        <v>44841</v>
       </c>
       <c r="B208" s="17">
-        <v>-23.63</v>
+        <v>-23.69</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="16">
-        <v>44841</v>
+        <v>44844</v>
       </c>
       <c r="B209" s="17">
-        <v>-23.69</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="16">
-        <v>44844</v>
+        <v>44845</v>
       </c>
       <c r="B210" s="17">
-        <v>-23.4</v>
+        <v>-23.45</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="16">
-        <v>44845</v>
+        <v>44846</v>
       </c>
       <c r="B211" s="17">
         <v>-23.45</v>
@@ -31111,335 +31111,335 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="16">
-        <v>44846</v>
+        <v>44847</v>
       </c>
       <c r="B212" s="17">
-        <v>-23.45</v>
+        <v>-23.55</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="16">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="B213" s="17">
-        <v>-23.55</v>
+        <v>-23.34</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="16">
-        <v>44848</v>
+        <v>44851</v>
       </c>
       <c r="B214" s="17">
-        <v>-23.34</v>
+        <v>-23.51</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="16">
-        <v>44851</v>
+        <v>44852</v>
       </c>
       <c r="B215" s="17">
-        <v>-23.51</v>
+        <v>-23.69</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="16">
-        <v>44852</v>
+        <v>44853</v>
       </c>
       <c r="B216" s="17">
-        <v>-23.69</v>
+        <v>-24.06</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="16">
-        <v>44853</v>
+        <v>44854</v>
       </c>
       <c r="B217" s="17">
-        <v>-24.06</v>
+        <v>-23.68</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="16">
-        <v>44854</v>
+        <v>44855</v>
       </c>
       <c r="B218" s="17">
-        <v>-23.68</v>
+        <v>-23.97</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="16">
-        <v>44855</v>
+        <v>44858</v>
       </c>
       <c r="B219" s="17">
-        <v>-23.97</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="16">
-        <v>44858</v>
+        <v>44859</v>
       </c>
       <c r="B220" s="17">
-        <v>-24</v>
+        <v>-23.82</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="16">
-        <v>44859</v>
+        <v>44860</v>
       </c>
       <c r="B221" s="17">
-        <v>-23.82</v>
+        <v>-23.49</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="16">
-        <v>44860</v>
+        <v>44861</v>
       </c>
       <c r="B222" s="17">
-        <v>-23.49</v>
+        <v>-23.7</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="16">
-        <v>44861</v>
+        <v>44862</v>
       </c>
       <c r="B223" s="17">
-        <v>-23.7</v>
+        <v>-23.61</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="16">
-        <v>44862</v>
+        <v>44865</v>
       </c>
       <c r="B224" s="17">
-        <v>-23.61</v>
+        <v>-23.81</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="16">
-        <v>44865</v>
+        <v>44866</v>
       </c>
       <c r="B225" s="17">
-        <v>-23.81</v>
+        <v>-23.76</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="16">
-        <v>44866</v>
+        <v>44867</v>
       </c>
       <c r="B226" s="17">
-        <v>-23.76</v>
+        <v>-23.57</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="16">
-        <v>44867</v>
+        <v>44868</v>
       </c>
       <c r="B227" s="17">
-        <v>-23.57</v>
+        <v>-23.48</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="16">
-        <v>44868</v>
+        <v>44869</v>
       </c>
       <c r="B228" s="17">
-        <v>-23.48</v>
+        <v>-23.62</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="16">
-        <v>44869</v>
+        <v>44872</v>
       </c>
       <c r="B229" s="17">
-        <v>-23.62</v>
+        <v>-23.11</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="16">
-        <v>44872</v>
+        <v>44873</v>
       </c>
       <c r="B230" s="17">
-        <v>-23.11</v>
+        <v>-22.73</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="16">
-        <v>44873</v>
+        <v>44874</v>
       </c>
       <c r="B231" s="17">
-        <v>-22.73</v>
+        <v>-22.64</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="16">
-        <v>44874</v>
+        <v>44875</v>
       </c>
       <c r="B232" s="17">
-        <v>-22.64</v>
+        <v>-22.74</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="16">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="B233" s="17">
-        <v>-22.74</v>
+        <v>-22.56</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="16">
-        <v>44876</v>
+        <v>44879</v>
       </c>
       <c r="B234" s="17">
-        <v>-22.56</v>
+        <v>-22.54</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="16">
-        <v>44879</v>
+        <v>44880</v>
       </c>
       <c r="B235" s="17">
-        <v>-22.54</v>
+        <v>-23.05</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="16">
-        <v>44880</v>
+        <v>44881</v>
       </c>
       <c r="B236" s="17">
-        <v>-23.05</v>
+        <v>-23.5</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="16">
-        <v>44881</v>
+        <v>44882</v>
       </c>
       <c r="B237" s="17">
-        <v>-23.5</v>
+        <v>-23.41</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="16">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="B238" s="17">
-        <v>-23.41</v>
+        <v>-23.46</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="16">
-        <v>44883</v>
+        <v>44886</v>
       </c>
       <c r="B239" s="17">
-        <v>-23.46</v>
+        <v>-24.73</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="16">
-        <v>44886</v>
+        <v>44887</v>
       </c>
       <c r="B240" s="17">
-        <v>-24.73</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="16">
-        <v>44887</v>
+        <v>44888</v>
       </c>
       <c r="B241" s="17">
-        <v>-24.51</v>
+        <v>-24.39</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="16">
-        <v>44888</v>
+        <v>44889</v>
       </c>
       <c r="B242" s="17">
-        <v>-24.39</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="16">
-        <v>44889</v>
+        <v>44890</v>
       </c>
       <c r="B243" s="17">
-        <v>-24.48</v>
+        <v>-24.17</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="16">
-        <v>44890</v>
+        <v>44893</v>
       </c>
       <c r="B244" s="17">
-        <v>-24.17</v>
+        <v>-23.31</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="16">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="B245" s="17">
-        <v>-23.31</v>
+        <v>-23.5</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="16">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="B246" s="17">
-        <v>-23.5</v>
+        <v>-23.53</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="16">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="B247" s="17">
-        <v>-23.53</v>
+        <v>-23.21</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="16">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="B248" s="17">
-        <v>-23.21</v>
+        <v>-24.3</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="16">
-        <v>44897</v>
+        <v>44900</v>
       </c>
       <c r="B249" s="17">
-        <v>-24.3</v>
+        <v>-24.76</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="16">
-        <v>44900</v>
+        <v>44901</v>
       </c>
       <c r="B250" s="17">
-        <v>-24.76</v>
+        <v>-25.53</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="16">
-        <v>44901</v>
+        <v>44902</v>
       </c>
       <c r="B251" s="17">
-        <v>-25.53</v>
+        <v>-26.16</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="16">
-        <v>44902</v>
+        <v>44903</v>
       </c>
       <c r="B252" s="17">
-        <v>-26.16</v>
+        <v>-27.45</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="16">
-        <v>44903</v>
+        <v>44904</v>
       </c>
       <c r="B253" s="17">
         <v>-27.45</v>
@@ -31447,391 +31447,391 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="16">
-        <v>44904</v>
+        <v>44907</v>
       </c>
       <c r="B254" s="17">
-        <v>-27.45</v>
+        <v>-27.81</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="16">
-        <v>44907</v>
+        <v>44908</v>
       </c>
       <c r="B255" s="17">
-        <v>-27.81</v>
+        <v>-27.97</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="16">
-        <v>44908</v>
+        <v>44909</v>
       </c>
       <c r="B256" s="17">
-        <v>-27.97</v>
+        <v>-28.54</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="16">
-        <v>44909</v>
+        <v>44910</v>
       </c>
       <c r="B257" s="17">
-        <v>-28.54</v>
+        <v>-28.89</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="16">
-        <v>44910</v>
+        <v>44911</v>
       </c>
       <c r="B258" s="17">
-        <v>-28.89</v>
+        <v>-29.43</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="16">
-        <v>44911</v>
+        <v>44914</v>
       </c>
       <c r="B259" s="17">
-        <v>-29.43</v>
+        <v>-29.75</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="16">
-        <v>44914</v>
+        <v>44915</v>
       </c>
       <c r="B260" s="17">
-        <v>-29.75</v>
+        <v>-30.22</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="16">
-        <v>44915</v>
+        <v>44916</v>
       </c>
       <c r="B261" s="17">
-        <v>-30.22</v>
+        <v>-30.38</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="16">
-        <v>44916</v>
+        <v>44917</v>
       </c>
       <c r="B262" s="17">
-        <v>-30.38</v>
+        <v>-30.13</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="16">
-        <v>44917</v>
+        <v>44918</v>
       </c>
       <c r="B263" s="17">
-        <v>-30.13</v>
+        <v>-30.14</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="16">
-        <v>44918</v>
+        <v>44921</v>
       </c>
       <c r="B264" s="17">
-        <v>-30.14</v>
+        <v>-30.26</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="16">
-        <v>44921</v>
+        <v>44922</v>
       </c>
       <c r="B265" s="17">
-        <v>-30.26</v>
+        <v>-30.19</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="16">
-        <v>44922</v>
+        <v>44923</v>
       </c>
       <c r="B266" s="17">
-        <v>-30.19</v>
+        <v>-30.21</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="16">
-        <v>44923</v>
+        <v>44924</v>
       </c>
       <c r="B267" s="17">
-        <v>-30.21</v>
+        <v>-30.49</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="16">
-        <v>44924</v>
+        <v>44925</v>
       </c>
       <c r="B268" s="17">
-        <v>-30.49</v>
+        <v>-30.71</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="16">
-        <v>44925</v>
+        <v>44928</v>
       </c>
       <c r="B269" s="17">
-        <v>-30.71</v>
+        <v>-30.39</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="16">
-        <v>44928</v>
+        <v>44929</v>
       </c>
       <c r="B270" s="17">
-        <v>-30.39</v>
+        <v>-30.07</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="16">
-        <v>44929</v>
+        <v>44930</v>
       </c>
       <c r="B271" s="17">
-        <v>-30.07</v>
+        <v>-29.85</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="16">
-        <v>44930</v>
+        <v>44931</v>
       </c>
       <c r="B272" s="17">
-        <v>-29.85</v>
+        <v>-29.69</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="16">
-        <v>44931</v>
+        <v>44932</v>
       </c>
       <c r="B273" s="17">
-        <v>-29.69</v>
+        <v>-29.15</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="16">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="B274" s="17">
-        <v>-29.15</v>
+        <v>-29.39</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="16">
-        <v>44935</v>
+        <v>44936</v>
       </c>
       <c r="B275" s="17">
-        <v>-29.39</v>
+        <v>-30.09</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="16">
-        <v>44936</v>
+        <v>44937</v>
       </c>
       <c r="B276" s="17">
-        <v>-30.09</v>
+        <v>-30.67</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="16">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="B277" s="17">
-        <v>-30.67</v>
+        <v>-31.12</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="16">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="B278" s="17">
-        <v>-31.12</v>
+        <v>-31.81</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="16">
-        <v>44939</v>
+        <v>44942</v>
       </c>
       <c r="B279" s="17">
-        <v>-31.81</v>
+        <v>-32.21</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="16">
-        <v>44942</v>
+        <v>44943</v>
       </c>
       <c r="B280" s="17">
-        <v>-32.21</v>
+        <v>-32.25</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="16">
-        <v>44943</v>
+        <v>44944</v>
       </c>
       <c r="B281" s="17">
-        <v>-32.25</v>
+        <v>-31.68</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="16">
-        <v>44944</v>
+        <v>44945</v>
       </c>
       <c r="B282" s="17">
-        <v>-31.68</v>
+        <v>-31.86</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="16">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B283" s="17">
-        <v>-31.86</v>
+        <v>-31.95</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="16">
-        <v>44946</v>
+        <v>44949</v>
       </c>
       <c r="B284" s="17">
-        <v>-31.95</v>
+        <v>-31.79</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="16">
-        <v>44949</v>
+        <v>44950</v>
       </c>
       <c r="B285" s="17">
-        <v>-31.79</v>
+        <v>-31.58</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="16">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B286" s="17">
-        <v>-31.58</v>
+        <v>-31.95</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="16">
-        <v>44951</v>
+        <v>44952</v>
       </c>
       <c r="B287" s="17">
-        <v>-31.95</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="16">
-        <v>44952</v>
+        <v>44953</v>
       </c>
       <c r="B288" s="17">
-        <v>-31.8</v>
+        <v>-31.64</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="16">
-        <v>44953</v>
+        <v>44956</v>
       </c>
       <c r="B289" s="17">
-        <v>-31.64</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="16">
-        <v>44956</v>
+        <v>44957</v>
       </c>
       <c r="B290" s="17">
-        <v>-31.85</v>
+        <v>-32.03</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="16">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B291" s="17">
-        <v>-32.03</v>
+        <v>-31.77</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="16">
-        <v>44958</v>
+        <v>44959</v>
       </c>
       <c r="B292" s="17">
-        <v>-31.77</v>
+        <v>-31.8</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="16">
-        <v>44959</v>
+        <v>44960</v>
       </c>
       <c r="B293" s="17">
-        <v>-31.8</v>
+        <v>-31.47</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="16">
-        <v>44960</v>
+        <v>44963</v>
       </c>
       <c r="B294" s="17">
-        <v>-31.47</v>
+        <v>-31.58</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="16">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="B295" s="17">
-        <v>-31.58</v>
+        <v>-31.66</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="16">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="B296" s="17">
-        <v>-31.66</v>
+        <v>-32.14</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="16">
-        <v>44965</v>
+        <v>44966</v>
       </c>
       <c r="B297" s="17">
-        <v>-32.14</v>
+        <v>-32.22</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="16">
-        <v>44966</v>
+        <v>44967</v>
       </c>
       <c r="B298" s="17">
-        <v>-32.22</v>
+        <v>-32.58</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="16">
-        <v>44967</v>
+        <v>44971</v>
       </c>
       <c r="B299" s="17">
-        <v>-32.58</v>
+        <v>-32.299999999999997</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="16">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="B300" s="17">
-        <v>-32.299999999999997</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="16">
-        <v>44972</v>
+        <v>44973</v>
       </c>
       <c r="B301" s="17">
-        <v>-32.35</v>
+        <v>-32.21</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="16">
-        <v>44973</v>
+        <v>44974</v>
       </c>
       <c r="B302" s="17">
         <v>-32.21</v>
@@ -31839,599 +31839,599 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="16">
-        <v>44974</v>
+        <v>44977</v>
       </c>
       <c r="B303" s="17">
-        <v>-32.21</v>
+        <v>-32.32</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="16">
-        <v>44977</v>
+        <v>44978</v>
       </c>
       <c r="B304" s="17">
-        <v>-32.32</v>
+        <v>-32.25</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="16">
-        <v>44978</v>
+        <v>44979</v>
       </c>
       <c r="B305" s="17">
-        <v>-32.25</v>
+        <v>-31.92</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="16">
-        <v>44979</v>
+        <v>44980</v>
       </c>
       <c r="B306" s="17">
-        <v>-31.92</v>
+        <v>-32.07</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="16">
-        <v>44980</v>
+        <v>44981</v>
       </c>
       <c r="B307" s="17">
-        <v>-32.07</v>
+        <v>-32.17</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="16">
-        <v>44981</v>
+        <v>44984</v>
       </c>
       <c r="B308" s="17">
-        <v>-32.17</v>
+        <v>-32.020000000000003</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="16">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B309" s="17">
-        <v>-32.020000000000003</v>
+        <v>-30.81</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="16">
-        <v>44985</v>
+        <v>44986</v>
       </c>
       <c r="B310" s="17">
-        <v>-30.81</v>
+        <v>-29.9</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="16">
-        <v>44986</v>
+        <v>44987</v>
       </c>
       <c r="B311" s="17">
-        <v>-29.9</v>
+        <v>-28.57</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="16">
-        <v>44987</v>
+        <v>44988</v>
       </c>
       <c r="B312" s="17">
-        <v>-28.57</v>
+        <v>-27.63</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="16">
-        <v>44988</v>
+        <v>44991</v>
       </c>
       <c r="B313" s="17">
-        <v>-27.63</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="16">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="B314" s="17">
-        <v>-26.27</v>
+        <v>-26.12</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="16">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="B315" s="17">
-        <v>-26.12</v>
+        <v>-25.97</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="16">
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="B316" s="17">
-        <v>-25.97</v>
+        <v>-25.68</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="16">
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="B317" s="17">
-        <v>-25.68</v>
+        <v>-25.59</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="16">
-        <v>44995</v>
+        <v>44998</v>
       </c>
       <c r="B318" s="17">
-        <v>-25.59</v>
+        <v>-25.29</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="16">
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="B319" s="17">
-        <v>-25.29</v>
+        <v>-25.05</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="16">
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="B320" s="17">
-        <v>-25.05</v>
+        <v>-25.52</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="16">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="B321" s="17">
-        <v>-25.52</v>
+        <v>-25.88</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="16">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="B322" s="17">
-        <v>-25.88</v>
+        <v>-25.69</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="16">
-        <v>45002</v>
+        <v>45005</v>
       </c>
       <c r="B323" s="17">
-        <v>-25.69</v>
+        <v>-26.14</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="16">
-        <v>45005</v>
+        <v>45012</v>
       </c>
       <c r="B324" s="17">
-        <v>-26.14</v>
+        <v>-26.4</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="16">
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="B325" s="17">
-        <v>-26.4</v>
+        <v>-25.51</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="16">
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="B326" s="17">
-        <v>-25.51</v>
+        <v>-24.49</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="16">
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="B327" s="17">
-        <v>-24.49</v>
+        <v>-23.96</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="16">
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="B328" s="17">
-        <v>-23.96</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="16">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="B329" s="17">
-        <v>-22.96</v>
+        <v>-21.84</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="16">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="B330" s="17">
-        <v>-21.84</v>
+        <v>-21.9</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="16">
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="B331" s="17">
-        <v>-21.9</v>
+        <v>-21.93</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="16">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B332" s="17">
-        <v>-21.93</v>
+        <v>-21.78</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="16">
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="B333" s="17">
-        <v>-21.78</v>
+        <v>-21.69</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="16">
-        <v>45023</v>
+        <v>45026</v>
       </c>
       <c r="B334" s="17">
-        <v>-21.69</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="16">
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="B335" s="17">
-        <v>-21.5</v>
+        <v>-21.34</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="16">
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="B336" s="17">
-        <v>-21.34</v>
+        <v>-21.3</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="16">
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="B337" s="17">
-        <v>-21.3</v>
+        <v>-21.1</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="16">
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="B338" s="17">
-        <v>-21.1</v>
+        <v>-21.03</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="16">
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="B339" s="17">
-        <v>-21.03</v>
+        <v>-20.96</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="16">
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="B340" s="17">
-        <v>-20.96</v>
+        <v>-20.78</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="16">
-        <v>45034</v>
+        <v>45035</v>
       </c>
       <c r="B341" s="17">
-        <v>-20.78</v>
+        <v>-20.61</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="16">
-        <v>45035</v>
+        <v>45036</v>
       </c>
       <c r="B342" s="17">
-        <v>-20.61</v>
+        <v>-20.75</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="16">
-        <v>45036</v>
+        <v>45037</v>
       </c>
       <c r="B343" s="17">
-        <v>-20.75</v>
+        <v>-20.78</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="16">
-        <v>45037</v>
+        <v>45040</v>
       </c>
       <c r="B344" s="17">
-        <v>-20.78</v>
+        <v>-20.87</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="16">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="B345" s="17">
-        <v>-20.87</v>
+        <v>-20.91</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="16">
-        <v>45041</v>
+        <v>45042</v>
       </c>
       <c r="B346" s="17">
-        <v>-20.91</v>
+        <v>-20.5</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="16">
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="B347" s="17">
-        <v>-20.5</v>
+        <v>-20.59</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="16">
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="B348" s="17">
-        <v>-20.59</v>
+        <v>-20.420000000000002</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="16">
-        <v>45044</v>
+        <v>45047</v>
       </c>
       <c r="B349" s="17">
-        <v>-20.420000000000002</v>
+        <v>-20.18</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="16">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="B350" s="17">
-        <v>-20.18</v>
+        <v>-19.899999999999999</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="16">
-        <v>45048</v>
+        <v>45049</v>
       </c>
       <c r="B351" s="17">
-        <v>-19.899999999999999</v>
+        <v>-20.3</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="16">
-        <v>45049</v>
+        <v>45050</v>
       </c>
       <c r="B352" s="17">
-        <v>-20.3</v>
+        <v>-20.03</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="16">
-        <v>45050</v>
+        <v>45051</v>
       </c>
       <c r="B353" s="17">
-        <v>-20.03</v>
+        <v>-20.05</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="16">
-        <v>45051</v>
+        <v>45054</v>
       </c>
       <c r="B354" s="17">
-        <v>-20.05</v>
+        <v>-20.02</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="16">
-        <v>45054</v>
+        <v>45055</v>
       </c>
       <c r="B355" s="17">
-        <v>-20.02</v>
+        <v>-20.56</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="16">
-        <v>45055</v>
+        <v>45056</v>
       </c>
       <c r="B356" s="17">
-        <v>-20.56</v>
+        <v>-20.399999999999999</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="16">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="B357" s="17">
-        <v>-20.399999999999999</v>
+        <v>-20.49</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="16">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="B358" s="17">
-        <v>-20.49</v>
+        <v>-20.34</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="16">
-        <v>45058</v>
+        <v>45061</v>
       </c>
       <c r="B359" s="17">
-        <v>-20.34</v>
+        <v>-20.329999999999998</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="16">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B360" s="17">
-        <v>-20.329999999999998</v>
+        <v>-19.88</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="16">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B361" s="17">
-        <v>-19.88</v>
+        <v>-20.14</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="16">
-        <v>45063</v>
+        <v>45064</v>
       </c>
       <c r="B362" s="17">
-        <v>-20.14</v>
+        <v>-20.04</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="16">
-        <v>45064</v>
+        <v>45065</v>
       </c>
       <c r="B363" s="17">
-        <v>-20.04</v>
+        <v>-20.13</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="16">
-        <v>45065</v>
+        <v>45068</v>
       </c>
       <c r="B364" s="17">
-        <v>-20.13</v>
+        <v>-20.12</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="16">
-        <v>45068</v>
+        <v>45069</v>
       </c>
       <c r="B365" s="17">
-        <v>-20.12</v>
+        <v>-20.079999999999998</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="16">
-        <v>45069</v>
+        <v>45070</v>
       </c>
       <c r="B366" s="17">
-        <v>-20.079999999999998</v>
+        <v>-19.96</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="16">
-        <v>45070</v>
+        <v>45071</v>
       </c>
       <c r="B367" s="17">
-        <v>-19.96</v>
+        <v>-20.14</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="16">
-        <v>45071</v>
+        <v>45072</v>
       </c>
       <c r="B368" s="17">
-        <v>-20.14</v>
+        <v>-20.16</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="16">
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="B369" s="17">
-        <v>-20.16</v>
+        <v>-20.149999999999999</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="16">
-        <v>45075</v>
+        <v>45076</v>
       </c>
       <c r="B370" s="17">
-        <v>-20.149999999999999</v>
+        <v>-20.059999999999999</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="16">
-        <v>45076</v>
+        <v>45077</v>
       </c>
       <c r="B371" s="17">
-        <v>-20.059999999999999</v>
+        <v>-20.170000000000002</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="16">
-        <v>45077</v>
+        <v>45078</v>
       </c>
       <c r="B372" s="17">
-        <v>-20.170000000000002</v>
+        <v>-19.940000000000001</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="16">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="B373" s="17">
-        <v>-19.940000000000001</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="16">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="B374" s="17">
-        <v>-20</v>
+        <v>-19.88</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="16">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="B375" s="17">
-        <v>-19.88</v>
+        <v>-19.989999999999998</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="16">
-        <v>45083</v>
+        <v>45084</v>
       </c>
       <c r="B376" s="17">
-        <v>-19.989999999999998</v>
+        <v>-19.760000000000002</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="16">
-        <v>45084</v>
+        <v>45085</v>
       </c>
       <c r="B377" s="17">
         <v>-19.760000000000002</v>
@@ -32439,215 +32439,215 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="16">
-        <v>45085</v>
+        <v>45086</v>
       </c>
       <c r="B378" s="17">
-        <v>-19.760000000000002</v>
+        <v>-19.440000000000001</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="16">
-        <v>45086</v>
+        <v>45089</v>
       </c>
       <c r="B379" s="17">
-        <v>-19.440000000000001</v>
+        <v>-19.57</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="16">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="B380" s="17">
-        <v>-19.57</v>
+        <v>-19.59</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="16">
-        <v>45090</v>
+        <v>45091</v>
       </c>
       <c r="B381" s="17">
-        <v>-19.59</v>
+        <v>-19.489999999999998</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="16">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="B382" s="17">
-        <v>-19.489999999999998</v>
+        <v>-19.52</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="16">
-        <v>45092</v>
+        <v>45093</v>
       </c>
       <c r="B383" s="17">
-        <v>-19.52</v>
+        <v>-19.77</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="16">
-        <v>45093</v>
+        <v>45096</v>
       </c>
       <c r="B384" s="17">
-        <v>-19.77</v>
+        <v>-19.579999999999998</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="16">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="B385" s="17">
-        <v>-19.579999999999998</v>
+        <v>-19.559999999999999</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="16">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B386" s="17">
-        <v>-19.559999999999999</v>
+        <v>-19.55</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="16">
-        <v>45098</v>
+        <v>45099</v>
       </c>
       <c r="B387" s="17">
-        <v>-19.55</v>
+        <v>-19.36</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="16">
-        <v>45099</v>
+        <v>45100</v>
       </c>
       <c r="B388" s="17">
-        <v>-19.36</v>
+        <v>-19.22</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="16">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="B389" s="17">
-        <v>-19.22</v>
+        <v>-19.239999999999998</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="16">
-        <v>45103</v>
+        <v>45104</v>
       </c>
       <c r="B390" s="17">
-        <v>-19.239999999999998</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="16">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="B391" s="17">
-        <v>-18.82</v>
+        <v>-18.64</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="16">
-        <v>45105</v>
+        <v>45106</v>
       </c>
       <c r="B392" s="17">
-        <v>-18.64</v>
+        <v>-18.61</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="16">
-        <v>45106</v>
+        <v>45107</v>
       </c>
       <c r="B393" s="17">
-        <v>-18.61</v>
+        <v>-18.38</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="16">
-        <v>45107</v>
+        <v>45110</v>
       </c>
       <c r="B394" s="17">
-        <v>-18.38</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="16">
-        <v>45110</v>
+        <v>45111</v>
       </c>
       <c r="B395" s="17">
-        <v>-17.93</v>
+        <v>-17.989999999999998</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="16">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B396" s="17">
-        <v>-17.989999999999998</v>
+        <v>-17.96</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="16">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B397" s="17">
-        <v>-17.96</v>
+        <v>-18.059999999999999</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="16">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B398" s="17">
-        <v>-18.059999999999999</v>
+        <v>-17.850000000000001</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="16">
-        <v>45114</v>
+        <v>45117</v>
       </c>
       <c r="B399" s="17">
-        <v>-17.850000000000001</v>
+        <v>-17.920000000000002</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="16">
-        <v>45117</v>
+        <v>45118</v>
       </c>
       <c r="B400" s="17">
-        <v>-17.920000000000002</v>
+        <v>-17.97</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="16">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B401" s="17">
-        <v>-17.97</v>
+        <v>-16.61</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="16">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B402" s="17">
-        <v>-16.61</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="16">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B403" s="17">
-        <v>-16.5</v>
+        <v>-16.649999999999999</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="16">
-        <v>45121</v>
+        <v>45124</v>
       </c>
       <c r="B404" s="17">
         <v>-16.649999999999999</v>
@@ -32655,857 +32655,849 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="16">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B405" s="17">
-        <v>-16.649999999999999</v>
+        <v>-16.579999999999998</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="16">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B406" s="17">
-        <v>-16.579999999999998</v>
+        <v>-17.32</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="16">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B407" s="17">
-        <v>-17.32</v>
+        <v>-16.84</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="16">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B408" s="17">
-        <v>-16.84</v>
+        <v>-16.63</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="16">
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="B409" s="17">
-        <v>-16.63</v>
+        <v>-16.399999999999999</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="16">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B410" s="17">
-        <v>-16.399999999999999</v>
+        <v>-16.14</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="16">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B411" s="17">
-        <v>-16.14</v>
+        <v>-16.18</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="16">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B412" s="17">
-        <v>-16.18</v>
+        <v>-16.16</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="16">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B413" s="17">
-        <v>-16.16</v>
+        <v>-16.21</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="16">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="B414" s="17">
-        <v>-16.21</v>
+        <v>-16.190000000000001</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="16">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B415" s="17">
-        <v>-16.190000000000001</v>
+        <v>-16.079999999999998</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="16">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B416" s="17">
-        <v>-16.079999999999998</v>
+        <v>-16.23</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="16">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B417" s="17">
-        <v>-16.23</v>
+        <v>-16.260000000000002</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="16">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B418" s="17">
-        <v>-16.260000000000002</v>
+        <v>-16.149999999999999</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="16">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="B419" s="17">
-        <v>-16.149999999999999</v>
+        <v>-16.16</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="16">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B420" s="17">
-        <v>-16.16</v>
+        <v>-16.38</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="16">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B421" s="17">
-        <v>-16.38</v>
+        <v>-16.5</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="16">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B422" s="17">
-        <v>-16.5</v>
+        <v>-16.28</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="16">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B423" s="17">
-        <v>-16.28</v>
+        <v>-16.170000000000002</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="16">
-        <v>45149</v>
+        <v>45152</v>
       </c>
       <c r="B424" s="17">
-        <v>-16.170000000000002</v>
+        <v>-16.11</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="16">
-        <v>45152</v>
+        <v>45153</v>
       </c>
       <c r="B425" s="17">
-        <v>-16.11</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="16">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B426" s="17">
-        <v>-15.83</v>
+        <v>-15.42</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="16">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B427" s="17">
-        <v>-15.42</v>
+        <v>-15.44</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="16">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B428" s="17">
-        <v>-15.44</v>
+        <v>-15.77</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="16">
-        <v>45156</v>
+        <v>45159</v>
       </c>
       <c r="B429" s="17">
-        <v>-15.77</v>
+        <v>-15.87</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="16">
-        <v>45159</v>
+        <v>45160</v>
       </c>
       <c r="B430" s="17">
-        <v>-15.87</v>
+        <v>-16.079999999999998</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="16">
-        <v>45160</v>
+        <v>45161</v>
       </c>
       <c r="B431" s="17">
-        <v>-16.079999999999998</v>
+        <v>-16.559999999999999</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="16">
-        <v>45161</v>
+        <v>45162</v>
       </c>
       <c r="B432" s="17">
-        <v>-16.559999999999999</v>
+        <v>-16.93</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="16">
-        <v>45162</v>
+        <v>45163</v>
       </c>
       <c r="B433" s="17">
-        <v>-16.93</v>
+        <v>-16.920000000000002</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="16">
-        <v>45163</v>
+        <v>45166</v>
       </c>
       <c r="B434" s="17">
-        <v>-16.920000000000002</v>
+        <v>-17.12</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="16">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="B435" s="17">
-        <v>-17.12</v>
+        <v>-17.27</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="16">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="B436" s="17">
-        <v>-17.27</v>
+        <v>-17.420000000000002</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="16">
-        <v>45168</v>
+        <v>45169</v>
       </c>
       <c r="B437" s="17">
-        <v>-17.420000000000002</v>
+        <v>-17.41</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="16">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B438" s="17">
-        <v>-17.41</v>
+        <v>-17.5</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="16">
-        <v>45170</v>
+        <v>45173</v>
       </c>
       <c r="B439" s="17">
-        <v>-17.5</v>
+        <v>-17.46</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="16">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="B440" s="17">
-        <v>-17.46</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="16">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="B441" s="17">
-        <v>-17.22</v>
+        <v>-17.18</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="16">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="B442" s="17">
-        <v>-17.18</v>
+        <v>-17.05</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="16">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="B443" s="17">
-        <v>-17.05</v>
+        <v>-16.86</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="16">
-        <v>45177</v>
+        <v>45180</v>
       </c>
       <c r="B444" s="17">
-        <v>-16.86</v>
+        <v>-16.87</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="16">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="B445" s="17">
-        <v>-16.87</v>
+        <v>-16.96</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="16">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="B446" s="17">
-        <v>-16.96</v>
+        <v>-16.829999999999998</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="16">
-        <v>45182</v>
+        <v>45183</v>
       </c>
       <c r="B447" s="17">
-        <v>-16.829999999999998</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="16">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B448" s="17">
-        <v>-17.03</v>
+        <v>-17.12</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="16">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="B449" s="17">
-        <v>-17.12</v>
+        <v>-17.03</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="16">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="B450" s="17">
-        <v>-17.03</v>
+        <v>-16.91</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="16">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="B451" s="17">
-        <v>-16.91</v>
+        <v>-16.46</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="16">
-        <v>45189</v>
-      </c>
-      <c r="B452" s="17">
-        <v>-16.46</v>
+      <c r="A452" s="18">
+        <v>45190</v>
+      </c>
+      <c r="B452" s="19">
+        <v>-16.18</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="18">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B453" s="19">
-        <v>-16.18</v>
+        <v>-16.05</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="18">
-        <v>45191</v>
+        <v>45194</v>
       </c>
       <c r="B454" s="19">
-        <v>-16.05</v>
+        <v>-16.170000000000002</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="18">
-        <v>45194</v>
+        <v>45195</v>
       </c>
       <c r="B455" s="19">
-        <v>-16.170000000000002</v>
+        <v>-16.38</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="18">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B456" s="19">
-        <v>-16.38</v>
+        <v>-16.37</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="18">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B457" s="19">
-        <v>-16.37</v>
+        <v>-16.010000000000002</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="18">
-        <v>45197</v>
+        <v>45198</v>
       </c>
       <c r="B458" s="19">
-        <v>-16.010000000000002</v>
+        <v>-15.65</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="18">
-        <v>45198</v>
+        <v>45201</v>
       </c>
       <c r="B459" s="19">
-        <v>-15.65</v>
+        <v>-15.2</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="18">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="B460" s="19">
-        <v>-15.2</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="18">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="B461" s="19">
-        <v>-14.72</v>
+        <v>-14.41</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="18">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="B462" s="19">
-        <v>-14.41</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="18">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="B463" s="19">
-        <v>-14.46</v>
+        <v>-14.53</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="18">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B464" s="19">
-        <v>-14.53</v>
+        <v>-14.58</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="18">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B465" s="19">
-        <v>-14.58</v>
+        <v>-14.65</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="18">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="B466" s="19">
-        <v>-14.65</v>
+        <v>-15.11</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="18">
-        <v>45210</v>
+        <v>45211</v>
       </c>
       <c r="B467" s="19">
-        <v>-15.11</v>
+        <v>-15.07</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="18">
-        <v>45211</v>
+        <v>45212</v>
       </c>
       <c r="B468" s="19">
-        <v>-15.07</v>
+        <v>-15.3</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="18">
-        <v>45212</v>
+        <v>45215</v>
       </c>
       <c r="B469" s="19">
-        <v>-15.3</v>
+        <v>-15.11</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="18">
-        <v>45215</v>
+        <v>45216</v>
       </c>
       <c r="B470" s="19">
-        <v>-15.11</v>
+        <v>-15.46</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="18">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B471" s="19">
-        <v>-15.46</v>
+        <v>-15.45</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="18">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B472" s="19">
-        <v>-15.45</v>
+        <v>-15.77</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="18">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B473" s="19">
-        <v>-15.77</v>
+        <v>-15.26</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="18">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B474" s="19">
-        <v>-15.26</v>
+        <v>-15.09</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="18">
-        <v>45222</v>
+        <v>45223</v>
       </c>
       <c r="B475" s="19">
-        <v>-15.09</v>
+        <v>-14.75</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="18">
-        <v>45223</v>
+        <v>45224</v>
       </c>
       <c r="B476" s="19">
-        <v>-14.75</v>
+        <v>-15.03</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="18">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B477" s="19">
-        <v>-15.03</v>
+        <v>-14.69</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="18">
-        <v>45225</v>
+        <v>45226</v>
       </c>
       <c r="B478" s="19">
-        <v>-14.69</v>
+        <v>-15.32</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="18">
-        <v>45226</v>
+        <v>45229</v>
       </c>
       <c r="B479" s="19">
-        <v>-15.32</v>
+        <v>-16.11</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="18">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="B480" s="19">
-        <v>-16.11</v>
+        <v>-15.44</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="18">
-        <v>45230</v>
+        <v>45231</v>
       </c>
       <c r="B481" s="19">
-        <v>-15.44</v>
+        <v>-14.83</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="18">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B482" s="19">
-        <v>-14.83</v>
+        <v>-15.09</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="18">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B483" s="19">
-        <v>-15.09</v>
+        <v>-14.66</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="18">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B484" s="19">
-        <v>-14.66</v>
+        <v>-14.08</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="18">
-        <v>45236</v>
+        <v>45237</v>
       </c>
       <c r="B485" s="19">
-        <v>-14.08</v>
+        <v>-14.47</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="18">
-        <v>45237</v>
+        <v>45238</v>
       </c>
       <c r="B486" s="19">
-        <v>-14.47</v>
+        <v>-14.56</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="18">
-        <v>45238</v>
+        <v>45239</v>
       </c>
       <c r="B487" s="19">
-        <v>-14.56</v>
+        <v>-14.31</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="18">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="B488" s="19">
-        <v>-14.31</v>
+        <v>-14.37</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="18">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="B489" s="19">
-        <v>-14.37</v>
+        <v>-14.69</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="18">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="B490" s="19">
-        <v>-14.69</v>
+        <v>-14.91</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="18">
-        <v>45244</v>
+        <v>45245</v>
       </c>
       <c r="B491" s="19">
-        <v>-14.91</v>
+        <v>-15.21</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="18">
-        <v>45245</v>
+        <v>45246</v>
       </c>
       <c r="B492" s="19">
-        <v>-15.21</v>
+        <v>-15.48</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="18">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="B493" s="19">
-        <v>-15.48</v>
+        <v>-16.03</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="18">
-        <v>45247</v>
+        <v>45250</v>
       </c>
       <c r="B494" s="19">
-        <v>-16.03</v>
+        <v>-16.149999999999999</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="18">
-        <v>45250</v>
+        <v>45251</v>
       </c>
       <c r="B495" s="19">
-        <v>-16.149999999999999</v>
+        <v>-17.07</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="18">
-        <v>45251</v>
+        <v>45252</v>
       </c>
       <c r="B496" s="19">
-        <v>-17.07</v>
+        <v>-18.3</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="18">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="B497" s="19">
-        <v>-18.3</v>
+        <v>-19.02</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="18">
-        <v>45253</v>
+        <v>45254</v>
       </c>
       <c r="B498" s="19">
-        <v>-19.02</v>
+        <v>-18.88</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="18">
-        <v>45254</v>
+        <v>45257</v>
       </c>
       <c r="B499" s="19">
-        <v>-18.88</v>
+        <v>-19.260000000000002</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="18">
-        <v>45257</v>
+        <v>45258</v>
       </c>
       <c r="B500" s="19">
-        <v>-19.260000000000002</v>
+        <v>-19.07</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="18">
-        <v>45258</v>
+        <v>45259</v>
       </c>
       <c r="B501" s="19">
-        <v>-19.07</v>
+        <v>-18.71</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="18">
-        <v>45259</v>
+        <v>45260</v>
       </c>
       <c r="B502" s="19">
-        <v>-18.71</v>
+        <v>-18.48</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="18">
-        <v>45260</v>
+        <v>45261</v>
       </c>
       <c r="B503" s="19">
-        <v>-18.48</v>
+        <v>-18.38</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="18">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="B504" s="19">
-        <v>-18.38</v>
+        <v>-18.399999999999999</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="18">
-        <v>45264</v>
+        <v>45265</v>
       </c>
       <c r="B505" s="19">
-        <v>-18.399999999999999</v>
+        <v>-18.239999999999998</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="18">
-        <v>45265</v>
+        <v>45266</v>
       </c>
       <c r="B506" s="19">
-        <v>-18.239999999999998</v>
+        <v>-17.98</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="18">
-        <v>45266</v>
+        <v>45267</v>
       </c>
       <c r="B507" s="19">
-        <v>-17.98</v>
+        <v>-18.100000000000001</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="18">
-        <v>45267</v>
+        <v>45268</v>
       </c>
       <c r="B508" s="19">
-        <v>-18.100000000000001</v>
+        <v>-18.22</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="18">
-        <v>45268</v>
+        <v>45271</v>
       </c>
       <c r="B509" s="19">
-        <v>-18.22</v>
+        <v>-17.98</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="18">
-        <v>45271</v>
+        <v>45272</v>
       </c>
       <c r="B510" s="19">
-        <v>-17.98</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="18">
-        <v>45272</v>
-      </c>
-      <c r="B511" s="19">
         <v>-18.21</v>
       </c>
     </row>
@@ -33523,8 +33515,8 @@
   <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="6" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A513" sqref="A513:F513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44659,7 +44651,7 @@
       </c>
       <c r="F509" s="1">
         <f>AVERAGE(E509:E513)</f>
-        <v>-3.0504999999999969</v>
+        <v>-2.968124999999997</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
@@ -44680,8 +44672,8 @@
         <v>-2.8250000000000028</v>
       </c>
       <c r="F510" s="1">
-        <f t="shared" si="15"/>
-        <v>-3.1343749999999986</v>
+        <f>AVERAGE(E510:E514)</f>
+        <v>-3.0524999999999998</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
@@ -44702,8 +44694,8 @@
         <v>-3.0049999999999955</v>
       </c>
       <c r="F511" s="1">
-        <f t="shared" si="15"/>
-        <v>-3.2374999999999972</v>
+        <f>AVERAGE(E511:E515)</f>
+        <v>-3.166249999999998</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
@@ -44724,31 +44716,13 @@
         <v>-3.3275000000000006</v>
       </c>
       <c r="F512" s="1">
-        <f t="shared" si="15"/>
-        <v>-3.353749999999998</v>
+        <f>AVERAGE(E512:E516)</f>
+        <v>-3.3275000000000006</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A513" s="12">
-        <v>44561</v>
-      </c>
-      <c r="B513">
-        <v>74.7</v>
-      </c>
-      <c r="C513">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="D513">
-        <v>77.78</v>
-      </c>
-      <c r="E513">
-        <f t="shared" si="14"/>
-        <v>-3.3799999999999955</v>
-      </c>
-      <c r="F513" s="1">
-        <f t="shared" si="15"/>
-        <v>-3.3799999999999955</v>
-      </c>
+      <c r="A513" s="12"/>
+      <c r="F513" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466D7DF1-6A7F-9740-A950-0A3010159170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC57F0-D7ED-674F-BFEB-3958E3D23511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68660" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
@@ -483,22 +483,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>687374</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>87002</xdr:rowOff>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>687375</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>87003</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>416560</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76892F79-EF25-BBBA-B7C8-F1EAFD42BA48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E635788B-E3CD-9E8A-4B9D-FAAB57E533F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -514,8 +514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6671614" y="14107802"/>
-          <a:ext cx="8229601" cy="4064001"/>
+          <a:off x="6776720" y="3566160"/>
+          <a:ext cx="8676640" cy="4338320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,23 +526,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>477520</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>55308</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>37030</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72764DF5-C79B-8583-13E4-54D5A50EEE8B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EC7014-4428-6546-ED3A-39E4B700B282}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -558,8 +558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6461760" y="3712908"/>
-          <a:ext cx="8612070" cy="4252532"/>
+          <a:off x="7162800" y="14030960"/>
+          <a:ext cx="7772400" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,23 +570,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>721360</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>650240</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7319F4-2722-7ACC-776A-2A80FD23461F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0D5BE4-41D9-D5A8-2D1A-C4D82E73C50E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,8 +602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16002000" y="3779520"/>
-          <a:ext cx="8737600" cy="4368800"/>
+          <a:off x="15758160" y="9001760"/>
+          <a:ext cx="8676640" cy="4338320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,23 +614,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>741680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>629920</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11">
+        <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A403E37-8C8D-3535-AA0E-F52A45B42293}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA168C00-586B-7427-5B34-761F23EF20EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -646,8 +646,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16002000" y="9052560"/>
-          <a:ext cx="8717280" cy="4358640"/>
+          <a:off x="15778480" y="3677920"/>
+          <a:ext cx="8615680" cy="4307840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,9 +991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
   <dimension ref="A1:W496"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE49" sqref="AE49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21428,7 +21428,7 @@
   <dimension ref="A1:J536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
@@ -33515,8 +33515,8 @@
   <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A474" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A513" sqref="A513:F513"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F509" sqref="F509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44734,7 +44734,7 @@
   <dimension ref="A1:K539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC57F0-D7ED-674F-BFEB-3958E3D23511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F5A24-7E22-934E-B260-B999D61845C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68660" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
@@ -482,23 +482,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>792480</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>162560</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>416560</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E635788B-E3CD-9E8A-4B9D-FAAB57E533F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D0D0D3-B539-7DF4-DAD8-FD246DD71A41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -514,8 +514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6776720" y="3566160"/>
-          <a:ext cx="8676640" cy="4338320"/>
+          <a:off x="16022320" y="14102080"/>
+          <a:ext cx="9144000" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,23 +526,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>680720</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>721360</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>35560</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>751840</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EC7014-4428-6546-ED3A-39E4B700B282}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126F5D0B-0E1E-8FCD-40B2-67E36DFA4195}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -558,8 +558,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7162800" y="14030960"/>
-          <a:ext cx="7772400" cy="3886200"/>
+          <a:off x="6664960" y="14091920"/>
+          <a:ext cx="9123680" cy="4561840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -570,23 +570,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>721360</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142240</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>345440</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>314960</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0D5BE4-41D9-D5A8-2D1A-C4D82E73C50E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC32D9D-242B-0916-B60C-0D93FEF2A753}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,8 +602,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15758160" y="9001760"/>
-          <a:ext cx="8676640" cy="4338320"/>
+          <a:off x="16002000" y="8900160"/>
+          <a:ext cx="9225280" cy="4612640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -614,23 +614,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>741680</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>20320</xdr:rowOff>
+      <xdr:rowOff>40640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>325120</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA168C00-586B-7427-5B34-761F23EF20EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A45714-2229-AA34-AFB3-FE70A9DA22B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -646,8 +646,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15778480" y="3677920"/>
-          <a:ext cx="8615680" cy="4307840"/>
+          <a:off x="15951200" y="3698240"/>
+          <a:ext cx="9286240" cy="4643120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>782320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B32A21-30AB-719F-B70A-962E3FD8F45A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6766560" y="3749040"/>
+          <a:ext cx="9083040" cy="4541520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -991,9 +1035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
   <dimension ref="A1:W496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE49" sqref="AE49"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -43458,7 +43502,7 @@
         <v>119.8</v>
       </c>
       <c r="E455">
-        <f t="shared" ref="E455:E513" si="14">AVERAGE(B455:C455)-D455</f>
+        <f t="shared" ref="E455:E512" si="14">AVERAGE(B455:C455)-D455</f>
         <v>-34.472499999999997</v>
       </c>
       <c r="F455" s="1">
@@ -43484,7 +43528,7 @@
         <v>-34.317499999999995</v>
       </c>
       <c r="F456" s="1">
-        <f t="shared" ref="F456:F513" si="15">AVERAGE(E456:E460)</f>
+        <f t="shared" ref="F456:F508" si="15">AVERAGE(E456:E460)</f>
         <v>-33.025500000000001</v>
       </c>
     </row>

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75F5A24-7E22-934E-B260-B999D61845C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59169B7F-E033-E447-9E60-59C59924D9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="68660" yWindow="500" windowWidth="38400" windowHeight="23500" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Bloomberg</t>
   </si>
@@ -60,32 +60,6 @@
   </si>
   <si>
     <t>https://github.com/lawrencetang20/oilresearch</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Calculated and plotted in Python in folder </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>final_products.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Look at series.py and average.py which respectively plot all series on one graph and the average.</t>
-    </r>
   </si>
   <si>
     <t>Brent</t>
@@ -154,9 +128,6 @@
     <t>https://www.investing.com/commodities/crude-oil-urals-spot-futures-historical-data</t>
   </si>
   <si>
-    <t>python takes these two gets matching dates, calculates discount, gets last 5 day rolling average</t>
-  </si>
-  <si>
     <t>python imports rolling average</t>
   </si>
   <si>
@@ -173,9 +144,6 @@
   </si>
   <si>
     <t>2. calculate last 5 days rolling average for investing.com (only one not calculated in excel calculations)</t>
-  </si>
-  <si>
-    <t>3. remove dates that are not in every other series</t>
   </si>
   <si>
     <t>4. keep remaining dates that match and the corresponding discounted rolling last 5 day averages for each of the series, as shown below</t>
@@ -214,21 +182,6 @@
     <t>Discount is calculated by taking average of four urals pricing then subtracting brent</t>
   </si>
   <si>
-    <t>1 has all 5</t>
-  </si>
-  <si>
-    <t>1 has no treasury</t>
-  </si>
-  <si>
-    <t>1 has average no treasury</t>
-  </si>
-  <si>
-    <t>use whatever is available</t>
-  </si>
-  <si>
-    <t>extend as far as possible</t>
-  </si>
-  <si>
     <t>NOT EXTENDED, USED ONLY MATCHING</t>
   </si>
   <si>
@@ -256,9 +209,6 @@
     <t>Average, extended, no treasury</t>
   </si>
   <si>
-    <t xml:space="preserve">3. plot the data (in series.py and average.py), did not take care of matching, instead just went as far as data could, interpolated data linearly in between if missing </t>
-  </si>
-  <si>
     <t>Python Outputs</t>
   </si>
   <si>
@@ -269,6 +219,53 @@
   </si>
   <si>
     <t>Average, matching, no treasury data</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculated and plotted in Python in folder </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>final_products.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Look at series.py and average.py which respectively plot all series on one graph and the average (both matching and extended versions)</t>
+    </r>
+  </si>
+  <si>
+    <t>Python imports the data from the tabs Bloomberg, Statista, Treasury, Investing.com, Datastream and spits out the following data and charts</t>
+  </si>
+  <si>
+    <t>3. remove dates that are not in all other series</t>
+  </si>
+  <si>
+    <t>data used went through filtering above</t>
+  </si>
+  <si>
+    <t>Sourced from Refinitiv</t>
+  </si>
+  <si>
+    <t>python imports these two gets matching dates, calculates discount, gets last 5 day rolling average</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3. plot the data (in series.py and average.py), did not do matching, instead just went as far as data could, interpolated data linearly in between if missing a date</t>
   </si>
 </sst>
 </file>
@@ -1002,15 +999,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AAC05F-B371-884F-ABD1-98C22EF61BAF}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -1020,7 +1017,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1033,11 +1030,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
-  <dimension ref="A1:W496"/>
+  <dimension ref="A1:V496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R42" sqref="R42"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,102 +1042,88 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="T7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="T6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="T10" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" t="s">
-        <v>50</v>
-      </c>
-      <c r="W10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" t="s">
-        <v>53</v>
-      </c>
-      <c r="W11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44565</v>
       </c>
@@ -1160,7 +1143,7 @@
         <v>-3.278</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44566</v>
       </c>
@@ -1179,11 +1162,14 @@
       <c r="F14">
         <v>-3.0089999999999999</v>
       </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
       <c r="T14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44567</v>
       </c>
@@ -1203,7 +1189,7 @@
         <v>-2.827</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44568</v>
       </c>
@@ -1243,10 +1229,10 @@
         <v>-2.2610000000000001</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
@@ -1769,7 +1755,7 @@
         <v>0.58899999999999997</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
@@ -2272,10 +2258,10 @@
         <v>-24.545000000000002</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="U68" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
@@ -10874,11 +10860,11 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -10889,19 +10875,19 @@
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -10909,10 +10895,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -21473,7 +21459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21483,35 +21469,35 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="C2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="C4" s="8"/>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -21520,33 +21506,33 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -29463,7 +29449,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29474,21 +29460,21 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -29497,10 +29483,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -29509,24 +29495,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -33559,7 +33545,7 @@
   <dimension ref="A1:H513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F509" sqref="F509"/>
     </sheetView>
   </sheetViews>
@@ -33572,41 +33558,41 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -33614,22 +33600,22 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
         <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -44778,8 +44764,8 @@
   <dimension ref="A1:K539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="7" topLeftCell="A510" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -44796,20 +44782,23 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -44821,30 +44810,30 @@
       <c r="A5" s="1"/>
       <c r="G5" s="1"/>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -44852,22 +44841,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="27" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>46</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>2</v>
@@ -44876,7 +44865,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1470AC-5FA7-124F-9B96-A1E9CD0BEF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05E574-022D-2646-83BE-AC6C4AF873C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
+    <workbookView xWindow="30220" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -21,11 +21,6 @@
     <sheet name="Treasury" sheetId="3" r:id="rId6"/>
     <sheet name="Datastream" sheetId="8" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Datastream!$A$8:$A$539</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Datastream!$I$7</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Datastream!$I$8:$I$539</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Bloomberg</t>
   </si>
@@ -271,6 +266,21 @@
   </si>
   <si>
     <t>3. plot the data (in series.py and average.py), did not do matching, instead just went as far as data could, interpolated data linearly in between if missing a date</t>
+  </si>
+  <si>
+    <t>Note: Last 5 day rolling average</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Bloomberg (subscription required)</t>
+  </si>
+  <si>
+    <t>Datastream (subscription required)</t>
+  </si>
+  <si>
+    <t>Neste</t>
   </si>
 </sst>
 </file>
@@ -16166,23 +16176,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>162560</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>81280</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246418</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>75821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217909</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>379</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D0D0D3-B539-7DF4-DAD8-FD246DD71A41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB80F152-3EEC-384A-C94E-6785A966420B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16198,8 +16208,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16022320" y="14102080"/>
-          <a:ext cx="9144000" cy="4572000"/>
+          <a:off x="7127164" y="4037463"/>
+          <a:ext cx="7772400" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16210,23 +16220,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>680720</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>71120</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>360149</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>208507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>751840</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>626281</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126F5D0B-0E1E-8FCD-40B2-67E36DFA4195}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D6BE0C2-6EEF-FD6D-8627-DA082920EB25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16242,8 +16252,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6664960" y="14091920"/>
-          <a:ext cx="9123680" cy="4561840"/>
+          <a:off x="16415224" y="9382835"/>
+          <a:ext cx="7772400" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16255,22 +16265,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>142240</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:colOff>284328</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>314960</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>550460</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC32D9D-242B-0916-B60C-0D93FEF2A753}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02BA135F-AA37-415C-6E05-BE72FAEDCFBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16286,8 +16296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16002000" y="8900160"/>
-          <a:ext cx="9225280" cy="4612640"/>
+          <a:off x="16339403" y="4075373"/>
+          <a:ext cx="7772400" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16298,23 +16308,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>40640</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>758209</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>325120</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>718630</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A45714-2229-AA34-AFB3-FE70A9DA22B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEAB2958-C30E-031A-4866-94080F6E1A94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16330,8 +16340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15951200" y="3698240"/>
-          <a:ext cx="9286240" cy="4643120"/>
+          <a:off x="7638955" y="14595522"/>
+          <a:ext cx="7772400" cy="3886200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16342,23 +16352,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>782320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358179</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>7431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>624310</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>140496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40B32A21-30AB-719F-B70A-962E3FD8F45A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8904ADBE-79AD-C365-F1B0-759224B71A37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16374,8 +16384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6766560" y="3749040"/>
-          <a:ext cx="9083040" cy="4541520"/>
+          <a:off x="16217939" y="14231431"/>
+          <a:ext cx="7672771" cy="3790665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16883,14 +16893,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
   <dimension ref="A1:V496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="125" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -18355,7 +18368,7 @@
         <v>-33.445999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44659</v>
       </c>
@@ -18375,7 +18388,7 @@
         <v>-35.235999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44662</v>
       </c>
@@ -18395,7 +18408,7 @@
         <v>-35.643999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44663</v>
       </c>
@@ -18415,7 +18428,7 @@
         <v>-35.79</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44664</v>
       </c>
@@ -18435,7 +18448,7 @@
         <v>-36.567999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44665</v>
       </c>
@@ -18455,7 +18468,7 @@
         <v>-37.058999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44670</v>
       </c>
@@ -18475,7 +18488,7 @@
         <v>-38.301000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44671</v>
       </c>
@@ -18495,7 +18508,7 @@
         <v>-38.314999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44672</v>
       </c>
@@ -18515,7 +18528,7 @@
         <v>-37.914999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44673</v>
       </c>
@@ -18535,7 +18548,7 @@
         <v>-37.396999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44676</v>
       </c>
@@ -18555,7 +18568,7 @@
         <v>-37.485999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44677</v>
       </c>
@@ -18575,7 +18588,7 @@
         <v>-37.51</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44678</v>
       </c>
@@ -18595,7 +18608,7 @@
         <v>-37.405999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44679</v>
       </c>
@@ -18615,7 +18628,7 @@
         <v>-37.380000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44680</v>
       </c>
@@ -18634,8 +18647,11 @@
       <c r="F94">
         <v>-36.774000000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>44684</v>
       </c>
@@ -18654,8 +18670,23 @@
       <c r="F95">
         <v>-34.713999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J95" t="s">
+        <v>68</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M95" t="s">
+        <v>69</v>
+      </c>
+      <c r="N95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>44685</v>
       </c>
@@ -26676,8 +26707,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K95" r:id="rId1" xr:uid="{4B1FF654-60A0-A34D-B88B-23FD282DA53A}"/>
+    <hyperlink ref="L95" r:id="rId2" xr:uid="{B0A9BD93-DC67-954E-94F1-DCD51205FF8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -26686,8 +26721,8 @@
   <dimension ref="A1:I534"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+      <pane ySplit="7" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37311,7 +37346,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45300,8 +45335,8 @@
   <dimension ref="A1:G510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <pane ySplit="8" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -60618,8 +60653,8 @@
   <dimension ref="A1:K539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O33" sqref="O33"/>
+      <pane ySplit="7" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/excel_csv/final_data.xlsx
+++ b/excel_csv/final_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/excel_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05E574-022D-2646-83BE-AC6C4AF873C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E68ACB-7DA3-0F45-8524-4106332AE97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30220" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{0CDE113E-35AD-2643-904C-47F0C01455AB}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>Bloomberg</t>
   </si>
@@ -16226,8 +16226,8 @@
       <xdr:rowOff>208507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>626281</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>733104</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>133065</xdr:rowOff>
     </xdr:to>
@@ -16270,8 +16270,8 @@
       <xdr:rowOff>113731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>550460</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>657283</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>38289</xdr:rowOff>
     </xdr:to>
@@ -16358,8 +16358,8 @@
       <xdr:rowOff>7431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>624310</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>731133</xdr:colOff>
       <xdr:row>88</xdr:row>
       <xdr:rowOff>140496</xdr:rowOff>
     </xdr:to>
@@ -16891,11 +16891,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FE935F-3708-A547-8EC8-4BACEA2299B7}">
-  <dimension ref="A1:V496"/>
+  <dimension ref="A1:Y496"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="107" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16904,6 +16904,8 @@
     <col min="11" max="11" width="5.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" customWidth="1"/>
+    <col min="24" max="24" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -17399,7 +17401,7 @@
         <v>0.434</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44593</v>
       </c>
@@ -17419,7 +17421,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>44594</v>
       </c>
@@ -17439,7 +17441,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>44595</v>
       </c>
@@ -17459,7 +17461,7 @@
         <v>-0.44600000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>44596</v>
       </c>
@@ -17479,7 +17481,7 @@
         <v>-0.42699999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>44599</v>
       </c>
@@ -17499,7 +17501,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>44600</v>
       </c>
@@ -17519,7 +17521,7 @@
         <v>0.69099999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>44601</v>
       </c>
@@ -17539,7 +17541,7 @@
         <v>1.0609999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>44602</v>
       </c>
@@ -17558,8 +17560,11 @@
       <c r="F40">
         <v>1.7869999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>44603</v>
       </c>
@@ -17578,8 +17583,23 @@
       <c r="F41">
         <v>1.202</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>68</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>44606</v>
       </c>
@@ -17599,7 +17619,7 @@
         <v>0.78400000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>44607</v>
       </c>
@@ -17622,7 +17642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44608</v>
       </c>
@@ -17642,7 +17662,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44609</v>
       </c>
@@ -17662,7 +17682,7 @@
         <v>-0.53700000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44610</v>
       </c>
@@ -17682,7 +17702,7 @@
         <v>-0.51400000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>44613</v>
       </c>
@@ -17702,7 +17722,7 @@
         <v>-1.028</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>44614</v>
       </c>
@@ -18042,7 +18062,7 @@
         <v>-23.882000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>44637</v>
       </c>
@@ -18061,8 +18081,11 @@
       <c r="F65">
         <v>-24.405999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>44638</v>
       </c>
@@ -18081,8 +18104,23 @@
       <c r="F66">
         <v>-24.324000000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>68</v>
+      </c>
+      <c r="V66" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="W66" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>44641</v>
       </c>
@@ -18102,7 +18140,7 @@
         <v>-24.257999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>44642</v>
       </c>
@@ -18128,7 +18166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>44643</v>
       </c>
@@ -18148,7 +18186,7 @@
         <v>-24.808</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>44644</v>
       </c>
@@ -18168,7 +18206,7 @@
         <v>-24.678000000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>44645</v>
       </c>
@@ -18188,7 +18226,7 @@
         <v>-25.239000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>44648</v>
       </c>
@@ -18208,7 +18246,7 @@
         <v>-25.706</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>44649</v>
       </c>
@@ -18228,7 +18266,7 @@
         <v>-26.457000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>44650</v>
       </c>
@@ -18248,7 +18286,7 @@
         <v>-27.19</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>44651</v>
       </c>
@@ -18268,7 +18306,7 @@
         <v>-28.559000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>44652</v>
       </c>
@@ -18288,7 +18326,7 @@
         <v>-28.872</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>44655</v>
       </c>
@@ -18308,7 +18346,7 @@
         <v>-30.120999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>44656</v>
       </c>
@@ -18328,7 +18366,7 @@
         <v>-31.324000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>44657</v>
       </c>
@@ -18348,7 +18386,7 @@
         <v>-32.290999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>44658</v>
       </c>
@@ -18368,7 +18406,7 @@
         <v>-33.445999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>44659</v>
       </c>
@@ -18388,7 +18426,7 @@
         <v>-35.235999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>44662</v>
       </c>
@@ -18408,7 +18446,7 @@
         <v>-35.643999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44663</v>
       </c>
@@ -18428,7 +18466,7 @@
         <v>-35.79</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>44664</v>
       </c>
@@ -18448,7 +18486,7 @@
         <v>-36.567999999999998</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>44665</v>
       </c>
@@ -18468,7 +18506,7 @@
         <v>-37.058999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>44670</v>
       </c>
@@ -18488,7 +18526,7 @@
         <v>-38.301000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>44671</v>
       </c>
@@ -18508,7 +18546,7 @@
         <v>-38.314999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>44672</v>
       </c>
@@ -18528,7 +18566,7 @@
         <v>-37.914999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>44673</v>
       </c>
@@ -18548,7 +18586,7 @@
         <v>-37.396999999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>44676</v>
       </c>
@@ -18568,7 +18606,7 @@
         <v>-37.485999999999997</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>44677</v>
       </c>
@@ -18588,7 +18626,7 @@
         <v>-37.51</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>44678</v>
       </c>
@@ -18608,7 +18646,7 @@
         <v>-37.405999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>44679</v>
       </c>
@@ -18628,7 +18666,7 @@
         <v>-37.380000000000003</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>44680</v>
       </c>
@@ -18647,11 +18685,11 @@
       <c r="F94">
         <v>-36.774000000000001</v>
       </c>
-      <c r="J94" t="s">
+      <c r="U94" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>44684</v>
       </c>
@@ -18670,23 +18708,25 @@
       <c r="F95">
         <v>-34.713999999999999</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="U95" t="s">
         <v>68</v>
       </c>
-      <c r="K95" s="8" t="s">
+      <c r="V95" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="L95" s="8" t="s">
+      <c r="W95" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M95" t="s">
+      <c r="X95" t="s">
         <v>69</v>
       </c>
-      <c r="N95" t="s">
+      <c r="Y95" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>44685</v>
       </c>
@@ -26708,11 +26748,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K95" r:id="rId1" xr:uid="{4B1FF654-60A0-A34D-B88B-23FD282DA53A}"/>
-    <hyperlink ref="L95" r:id="rId2" xr:uid="{B0A9BD93-DC67-954E-94F1-DCD51205FF8C}"/>
+    <hyperlink ref="V95" r:id="rId1" xr:uid="{A26D945A-97AC-254E-8B1A-DEBFF59C7ECD}"/>
+    <hyperlink ref="W95" r:id="rId2" xr:uid="{F4072B73-3259-6042-BBF6-994CCF88BBF4}"/>
+    <hyperlink ref="V66" r:id="rId3" xr:uid="{2A68F9BC-B3E2-D44B-A0EA-65E4B62D62AE}"/>
+    <hyperlink ref="W66" r:id="rId4" xr:uid="{D5A2CD55-AFA8-734D-BFF0-8423524549D7}"/>
+    <hyperlink ref="V41" r:id="rId5" xr:uid="{5DC87B8C-7B94-6F4C-9752-FCDF3F68E816}"/>
+    <hyperlink ref="W41" r:id="rId6" xr:uid="{A27F00DD-9B28-F448-808E-004FA121B60F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
